--- a/data-papers-blogs.xlsx
+++ b/data-papers-blogs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshah02\Documents\Data-papers-blogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E55658-813A-4D9B-9286-B3DC81023255}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{800AACF2-AB7F-4D8B-8A97-11AE19F20F55}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{6035ABF0-4057-4120-9774-842389C63410}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{6035ABF0-4057-4120-9774-842389C63410}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
+    <sheet name="Papers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>The Stanford Natural Language Inference (SNLI) Corpus</t>
   </si>
@@ -46,13 +47,34 @@
   </si>
   <si>
     <t>Mentioned in the link</t>
+  </si>
+  <si>
+    <t>classify pairs of sentences to entailment, neutral and contradiction</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1603.06021.pdf</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Hybrid or tree-sequence parsing</t>
+  </si>
+  <si>
+    <t>A Fast Unified Model for Parsing and Sentence Understanding</t>
+  </si>
+  <si>
+    <t>https://github.com/jekbradbury/examples/tree/spinn/snli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +95,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="-0.24994659260841701"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,12 +124,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,15 +451,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F217E5F-DA2C-4914-9180-50953A823479}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="102.85546875" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,19 +470,22 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -463,4 +498,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2129A92D-2569-4958-A2B7-8FA3497729E0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{61381E51-B367-419B-A133-45DE21F58EF9}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{D6083FBE-25F5-4152-8DBB-535E3CC193A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>